--- a/NeverEatAlone/NEA_Issues.xlsx
+++ b/NeverEatAlone/NEA_Issues.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>ISSUE</t>
   </si>
@@ -168,14 +168,11 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,6 +181,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -528,20 +528,20 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D22"/>
+      <selection activeCell="C17" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="4" width="43.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -552,189 +552,225 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
@@ -743,41 +779,8 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/NeverEatAlone/NEA_Issues.xlsx
+++ b/NeverEatAlone/NEA_Issues.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>ISSUE</t>
   </si>
@@ -76,6 +76,21 @@
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>Avatars</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>Delete account</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Resolved - Partial</t>
   </si>
 </sst>
 </file>
@@ -171,9 +186,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -190,6 +202,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -525,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C18"/>
+      <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -538,207 +553,309 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+    <row r="28" spans="1:4">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="52">
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
@@ -747,38 +864,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/NeverEatAlone/NEA_Issues.xlsx
+++ b/NeverEatAlone/NEA_Issues.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>ISSUE</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Delete account</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Resolved - Partial</t>
@@ -186,6 +183,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -202,9 +202,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -542,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -553,265 +550,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
@@ -824,46 +863,6 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/NeverEatAlone/NEA_Issues.xlsx
+++ b/NeverEatAlone/NEA_Issues.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>ISSUE</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>Resolved - Partial</t>
+  </si>
+  <si>
+    <t>Edit Profile Spinner GUI formatting</t>
+  </si>
+  <si>
+    <t>Contacts avatar support</t>
+  </si>
+  <si>
+    <t>Password encryption</t>
+  </si>
+  <si>
+    <t>Firebase integration</t>
   </si>
 </sst>
 </file>
@@ -537,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:C28"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -809,48 +821,90 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
+  <mergeCells count="68">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
@@ -863,6 +917,54 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/NeverEatAlone/NEA_Issues.xlsx
+++ b/NeverEatAlone/NEA_Issues.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
   <si>
     <t>ISSUE</t>
   </si>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:B36"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -618,9 +618,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
@@ -788,9 +790,11 @@
         <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
@@ -844,9 +848,11 @@
         <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
@@ -897,14 +903,54 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
@@ -917,54 +963,14 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/NeverEatAlone/NEA_Issues.xlsx
+++ b/NeverEatAlone/NEA_Issues.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
   <si>
     <t>ISSUE</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Profile Updates</t>
   </si>
   <si>
-    <t>Nearby List</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -100,6 +97,12 @@
   </si>
   <si>
     <t>Firebase integration</t>
+  </si>
+  <si>
+    <t>Mutliple Users same device Location Persistence</t>
+  </si>
+  <si>
+    <t>Nearby Contacts List</t>
   </si>
 </sst>
 </file>
@@ -549,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A14"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -658,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -678,9 +681,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
@@ -713,7 +718,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
@@ -731,14 +736,14 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -749,14 +754,14 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -767,7 +772,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
@@ -787,7 +792,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
@@ -807,7 +812,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -827,14 +832,14 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -845,7 +850,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
@@ -865,7 +870,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>4</v>
@@ -885,14 +890,14 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -901,56 +906,40 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
+  <mergeCells count="72">
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
@@ -963,14 +952,54 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
